--- a/biology/Botanique/Cocotier_du_Chili/Cocotier_du_Chili.xlsx
+++ b/biology/Botanique/Cocotier_du_Chili/Cocotier_du_Chili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jubaea chilensis · Palmier du Chili
-Le cocotier du Chili, palmier du Chili ou jubéa[1], Jubaea chilensis, est une espèce de plantes monocotylédones de la famille des palmiers (Arecaceae).  C'est la seule espèce actuellement acceptée au sein du genre Jubaea. Jubaea chilensis est un palmier à feuilles pennées proche d’une lignée de genres distribués exclusivement dans l’hémisphère sud. L’origine de ce groupe se situe en Afrique (Jubaeopsis) pour se poursuivre à l’est vers Madagascar (Voanioala), la Mélanésie (Cocos), le Chili (Jubaea), la Bolivie (Parajubaea), et enfin pour s'achever au Sud du Brésil (Syagrus, Butia, Lytocaryum, Allagoptera, Polyandrococos). Son nom lui est donné en l’honneur du roi savant Juba II (50 av. J.-C. à 24 apr. J.-C.), qui règne sur la Maurétanie et qui s’intéresse à la botanique[2],[diff 1]. L’épithète spécifique, chilensis, se réfère au nom du pays d'origine de l’espèce, le Chili.
+Le cocotier du Chili, palmier du Chili ou jubéa, Jubaea chilensis, est une espèce de plantes monocotylédones de la famille des palmiers (Arecaceae).  C'est la seule espèce actuellement acceptée au sein du genre Jubaea. Jubaea chilensis est un palmier à feuilles pennées proche d’une lignée de genres distribués exclusivement dans l’hémisphère sud. L’origine de ce groupe se situe en Afrique (Jubaeopsis) pour se poursuivre à l’est vers Madagascar (Voanioala), la Mélanésie (Cocos), le Chili (Jubaea), la Bolivie (Parajubaea), et enfin pour s'achever au Sud du Brésil (Syagrus, Butia, Lytocaryum, Allagoptera, Polyandrococos). Son nom lui est donné en l’honneur du roi savant Juba II (50 av. J.-C. à 24 apr. J.-C.), qui règne sur la Maurétanie et qui s’intéresse à la botanique,[diff 1]. L’épithète spécifique, chilensis, se réfère au nom du pays d'origine de l’espèce, le Chili.
 Avec son stipe (ou faux-tronc) qui atteint parfois cinq mètres de circonférence au sol, il est le plus imposant des palmiers. C’est une plante à la croissance assez lente à l’âge juvénile puis qui s'accélère à partir de la quinzième année environ et qui ne fleurit pas avant l’âge de 60 ans. C’est le plus résistant au froid de tous les palmiers à feuilles pennées. Dans de bonnes conditions, il peut supporter des températures allant jusqu’à −15 °C.
-Le cocotier du Chili est classé comme espèce menacée vulnérable (VU A1cd) sur la liste rouge de l'UICN, classement en raison de son exploitation intensive dans son pays d’origine pour l’extraction de son fameux miel. L’exploitation de l’amande de son fruit et de sa sève élaborée est aujourd’hui réglementée. Actuellement, seulement 120 000 spécimens[3] sont recensés dans leur aire de distribution naturelle, la région centrale sub-humide du Chili qui bénéficie d’un climat méditerranéen[4].
+Le cocotier du Chili est classé comme espèce menacée vulnérable (VU A1cd) sur la liste rouge de l'UICN, classement en raison de son exploitation intensive dans son pays d’origine pour l’extraction de son fameux miel. L’exploitation de l’amande de son fruit et de sa sève élaborée est aujourd’hui réglementée. Actuellement, seulement 120 000 spécimens sont recensés dans leur aire de distribution naturelle, la région centrale sub-humide du Chili qui bénéficie d’un climat méditerranéen.
 Le cocotier du Chili est introduit en France au milieu du XIXe siècle par Charles Naudin, lorsque les premiers amateurs tentent d’acclimater des plantes exotiques dans leurs jardins. Ce palmier est également cultivé à la même époque et pour la première fois, au Royaume-Uni, en Italie, dans la péninsule Ibérique ou même en Californie et en Australie.
 De nombreux artistes chiliens, peintres, poètes, chroniqueurs ou cartographes représentent ou évoquent avec admiration le palmier à miel dans leurs œuvres.
 </t>
@@ -518,28 +530,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stipe et palmes
-Le cocotier du Chili pousse sur des sols pauvres et secs, sa croissance est très lente les premières années mais commence à s'accélérer à partir de la 15e année. Avec l'âge, son stipe peut atteindre 25 mètres de hauteur, pour 1 à 2 mètres de diamètre[5] et 5 mètres de circonférence. Ce stipe lisse est gris, plus large à la base que sous la couronne, souvent marqué de larges cicatrices laissées par la base des pétioles[6]. Le Jubaea chilensis est l'un des palmiers dont le stipe est le plus gros en proportion de la hauteur. Avec l'âge, le faux-tronc se rétrécit dans sa partie supérieure, prenant parfois la forme d'une bouteille.
-La couronne comprend 40 à 50 feuilles pennées de 3 à 5 mètres de longueur, rigides, coriaces et inermes, d'un vert plus au moins foncé. Cette couronne de feuilles est dressée au centre et recourbée pour les feuilles externes. Le feuillage est persistant. Les feuilles sont pennées à base engainante. Chacune d'elles compte 110 à 120 folioles[7]. Les folioles sont linéaires-lancéolés, vertes en dessus et glauques en dessous ; elles ont une architecture rédupliquée (le contraire des Phoenix). Elles sont fixées de manière alterne sur le rachis par un bourrelet peu saillant d'un vert jaunâtre, à nervure médiane d'un vert pâle, très saillante en dessus, formant en dessous un léger sillon longitudinal entièrement recouvert par un tomentum épais persistant, rouge brun. Les pétioles sont courts, fibreux et se détachent facilement du stipe quand la feuille est morte[8]. Ce palmier perd ses palmes naturellement lorsque celles-ci ont séché.
+          <t>Stipe et palmes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cocotier du Chili pousse sur des sols pauvres et secs, sa croissance est très lente les premières années mais commence à s'accélérer à partir de la 15e année. Avec l'âge, son stipe peut atteindre 25 mètres de hauteur, pour 1 à 2 mètres de diamètre et 5 mètres de circonférence. Ce stipe lisse est gris, plus large à la base que sous la couronne, souvent marqué de larges cicatrices laissées par la base des pétioles. Le Jubaea chilensis est l'un des palmiers dont le stipe est le plus gros en proportion de la hauteur. Avec l'âge, le faux-tronc se rétrécit dans sa partie supérieure, prenant parfois la forme d'une bouteille.
+La couronne comprend 40 à 50 feuilles pennées de 3 à 5 mètres de longueur, rigides, coriaces et inermes, d'un vert plus au moins foncé. Cette couronne de feuilles est dressée au centre et recourbée pour les feuilles externes. Le feuillage est persistant. Les feuilles sont pennées à base engainante. Chacune d'elles compte 110 à 120 folioles. Les folioles sont linéaires-lancéolés, vertes en dessus et glauques en dessous ; elles ont une architecture rédupliquée (le contraire des Phoenix). Elles sont fixées de manière alterne sur le rachis par un bourrelet peu saillant d'un vert jaunâtre, à nervure médiane d'un vert pâle, très saillante en dessus, formant en dessous un léger sillon longitudinal entièrement recouvert par un tomentum épais persistant, rouge brun. Les pétioles sont courts, fibreux et se détachent facilement du stipe quand la feuille est morte. Ce palmier perd ses palmes naturellement lorsque celles-ci ont séché.
 	L'évolution du stipe du Jubaea chilensis en fonction de l'âge et du climat
 			Le stipe d'un Jubaea de 50 ans ne pousse en hauteur qu'après avoir atteint son diamètre définitif.
 			Gravure allemande de 1888, le diamètre du stipe peut varier en fonction des conditions climatiques.
 			Le stipe, avec l'âge, se rétrécit sous la couronne, donnant au palmier une forme de bouteille (Le Plantier de Costebelle).
 			Stipe de Jubaea, 1873, The American Cyclopaedia, George Ripley et Charles Dana, éditions Appleton.
-Fleur et fruit
-Jubaea chilensis est un palmier monoïque[9]. La floraison commence seulement à partir de l'âge de quarante à soixante ans. De larges inflorescences apparaissent entre les feuilles en novembre au Chili. Les spathes naviculaires et fusiformes dépassent de 1,50 m de longueur et sont recouvertes d’un tomentum marron. L’inflorescence porte de nombreuses fleurs jaune-orangé. L'inflorescence est un spadice ramifié de fleurs unisexuées[10], qui émerge à l'aisselle des feuilles inférieures ; elle est de couleur pourprée. Les fleurs mâles sont portées sur un pédoncule subtrigone avec calice tripartite. Les fleurs femelles, déprimées et globuleuses, sont protégées par un calice triphylle[8].
-À la Villa Thuret (devenue une station botanique de l'INRA), au cap d'Antibes, dans les Alpes Maritimes, le premier sujet est planté en 1858, 4 ans après le semis. La floraison, suivie d'une fructification, a lieu en 1894 (une première en France). Le palmier a donc 40 ans. À Lattes, près de Montpellier, douze exemplaires sont plantés, 5 ans après le semis, en 1864, au sein de la pépinière Teule, Gay et Sahut. La première floraison est constatée sur l'un des palmiers en 1904. Il a donc 45 ans. La totalité des sujets fructifie à partir de 1910. Les palmiers ont alors 51 ans.
-Les fruits sont des drupes ovoïdes, monospermiques. Ils sont semblables à des petites noix de coco de 3 cm de diamètre. Ils ont une pulpe orange ou jaune vif et fibreuse qui entoure une graine, contenant une chair blanche et comestible dont le goût rappelle celui de l'albumen de la noix de coco ordinaire. Les endocarpes sont parcourus de la base au sommet par 3 sillons plus ou moins saillants, alternant avec les trois pores ronds ou ovales, situés à des hauteurs différentes, depuis la base jusqu'au milieu[8]. Ces trois opercules contiennent trois germes. La maturation de l'infrutescence du cocotier dure de février à mai dans l'hémisphère sud[11]. Cette infrutescence arrive également à maturation dans le sud de la France. La noix est appelée au Chili coquito.
-Le coquito est une graine oléagineuse. L'analyse de l'huile de coquito montre qu'elle est composée à 67,3 % de matières grasses (essentiellement des acides gras saturés comme l'acide caprique, l'acide caprylique, l'acide laurique et l'acide myristique et des triglycérides à chaîne moyenne), entre 7 et 11 % de protéines, glucides et fibre[12].
-Multiplication
-Reproduction
-La multiplication se fait exclusivement par semis. La germination de la graine du cocotier du Chili est longue (deux mois à un an) et problématique. Le taux de germination est supérieur à 50 %[11]. Pour obtenir des résultats satisfaisants, « il faut semer des graines très fraîches, les faire hiverner (5 °C à 10 °C) quelques semaines en terre humide, puis les placer dans des conditions chaudes (27 °C) et humides. La croissance des plantules est délicate, car ces dernières sont sensibles à une maladie (sorte de fonte) dont les origines sont inconnues »[13]. Il faut toutefois trois à huit mois pour obtenir la première feuille, simple et assez longue. La croissance est ensuite très lente les premières années, comme pour tous les palmiers.
-Hybrides et cultivars
-Bien qu'aucun hybride naturel de Jubaea chilensis ne soit signalé, l'espèce est connue pour ses diverses hybridations en culture ainsi qu'en témoignent quelques cultivars.
-L'hybridation s'obtient en retirant les anthères des fleurs du parent femelle puis en déposant sur leur pistil du pollen mûr prélevé sur le parent mâle (). Dans l'appellation du palmier hybride, le nom du parent femelle () est toujours indiqué en priorité ; ainsi Jubaea × Butia est un hybride dont le jubaea est le parent femelle, produisant les graines et le butia est le parent duquel provient le pollen[14].
-Jubaea chilensis × Butia capitata (nommé ×Jubutia) est un excellent palmier au stipe massif, faisant presque la taille d'un Jubaea mais dont la croissance est plus rapide. Les feuilles sont plus bleues que celles du Jubaea et plus distinctement ancrées que celles d'un Butia. Il est très résistant au froid et c'est un supplément intéressant à la gamme limitée de palmiers disponibles pour les jardins tempérés.
-Il existe deux autres hybrides de Jubaea plus rares. Le premier est le croisement d'un Jubaea chilensis (parent femelle ) avec un Syagrus romanzzofiana (parent mâle ) ; cet hybride difficile à obtenir est nommé ×Jubeagrus (syn. Jubaea chilensis × Syagrus romanzzofiana) et il est doté d'une bonne rusticité. Le second est le résultat d'un croisement entre un ×Jubutia (parent femelle ) avec un Syagrus romanzzofiana (parent mâle ) ; cet hybride, également difficile à obtenir, est nommé ×Jubutyagrus (syn. (Jubaea chilensis × Butia capitata) × Syagrus romanzzofiana) et il est aussi doté d'une bonne rusticité.
-Cette espèce peut enfin s'hybrider avec Butia odorata (Barb.Rodr.) Noblick. L'espèce hybride obtenue est nommée ×Jubautia splendens Hodel[15].
 </t>
         </is>
       </c>
@@ -565,21 +568,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxinomie</t>
+          <t>Caractéristiques botaniques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Première description scientifique, Molina, 1782
-Dans son Essai sur l'histoire naturelle du Chili, Le père Jésuite Juan Ignacio Molina donne une description scientifique inédite du palmier chilien[16]. Cet ouvrage est la première étude scientifique sur l'histoire naturelle du Chili que le botaniste publie en italien depuis l'Europe puisque les Jésuites ont été expulsés du pays en 1768. Le nom binominal Palma chilensis utilisé pour définir le palmier y est associée au terme latin Cocos inermis et à la dénomination d'origine indienne Lilla. L'examen de la plante incite le savant à le comparer au palmier dattier et à observer que « les fleurs sont monoïques et sont renfermées dans une spathe ligneuse qui se fend à mesure que la fleur s'accroît »[16] ; Molina ne relève curieusement que deux opercules sur les noix du jubaea alors qu'ils sont au nombre de trois et note que la « liqueur laiteuse du noyau lorsque celui-ci est jeune, est très rafraîchissante ». Chaque grappe de fruits « comporte plus mille coques recouvertes de deux écorces, comme les cocos des tropiques »[16].
-Définition du genre, Kunth, 1816
-Le genre Jubaea est décrit par Karl Sigismund Kunth en 1816[17] à la suite des publications d'Alexandre de Humboldt[9]. Alexandre de Humboldt et Aimé Bonpland ont en effet rapporté durant leur voyage en Amérique du Sud un herbier riche de plus de 70 000 spécimens dont 54 000 nouvelles espèces. Humboldt après avoir contacté plusieurs botanistes, finit par rencontrer Kunth, neveu de son ancien précepteur, et lui confie la tâche énorme de déterminer sa collection. Kunth y consacre 24 ans de sa vie.
-Attribution de l'épithète spécifique, Baillon, 1895
-Jubaea spectabilis tel que défini en 1816 par le botaniste allemand a des synonymes comme Cocos chilensis (Molina[18]) Kunth, Micrococos chilensis Philippi[19] ou Palma chilensis Molina[20]. Le nom binominal de Jubaea chilensis, actuellement en vigueur, est employé par le botaniste français Henri Ernest Baillon à partir de 1895 dans son ouvrage de taxonomie, Histoire des plantes[21].Les noms vernaculaires de ce palmier, Palma chilena ou coquito ainsi que les dénominations locales essentiellement d'origine Mapuche Lilla, Lillal ou Quechua Can can, Kan kan sont mentionnées par le botaniste italien Carlo Luigi Giuseppe Bertero[22], et reprises par Henri Ernest Baillon dans son traité général de botanique[21].
-Classification traditionnelle des plantes à fleurs
-Selon la classification de Cronquist, le cocotier du Chili est rattaché, de par ses caractères morphologiques spécifiques, à la famille des Arecaceae, puis, toujours selon la taxinomie linnéenne, à la sous-famille des Arecoideae, à la tribu des Cocoeae et enfin à la sous-tribu des Attaleinae[23].
-Le genre Jubaea partage sa sous-tribu Attaleinae avec 9 autres genre; 
-Beccariophoenix, Jubaeopsis, Voanioala, Allagoptera, Butia, Cocos, Syagrus, Parajubaea et Attalea.
+          <t>Fleur et fruit</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jubaea chilensis est un palmier monoïque. La floraison commence seulement à partir de l'âge de quarante à soixante ans. De larges inflorescences apparaissent entre les feuilles en novembre au Chili. Les spathes naviculaires et fusiformes dépassent de 1,50 m de longueur et sont recouvertes d’un tomentum marron. L’inflorescence porte de nombreuses fleurs jaune-orangé. L'inflorescence est un spadice ramifié de fleurs unisexuées, qui émerge à l'aisselle des feuilles inférieures ; elle est de couleur pourprée. Les fleurs mâles sont portées sur un pédoncule subtrigone avec calice tripartite. Les fleurs femelles, déprimées et globuleuses, sont protégées par un calice triphylle.
+À la Villa Thuret (devenue une station botanique de l'INRA), au cap d'Antibes, dans les Alpes Maritimes, le premier sujet est planté en 1858, 4 ans après le semis. La floraison, suivie d'une fructification, a lieu en 1894 (une première en France). Le palmier a donc 40 ans. À Lattes, près de Montpellier, douze exemplaires sont plantés, 5 ans après le semis, en 1864, au sein de la pépinière Teule, Gay et Sahut. La première floraison est constatée sur l'un des palmiers en 1904. Il a donc 45 ans. La totalité des sujets fructifie à partir de 1910. Les palmiers ont alors 51 ans.
+Les fruits sont des drupes ovoïdes, monospermiques. Ils sont semblables à des petites noix de coco de 3 cm de diamètre. Ils ont une pulpe orange ou jaune vif et fibreuse qui entoure une graine, contenant une chair blanche et comestible dont le goût rappelle celui de l'albumen de la noix de coco ordinaire. Les endocarpes sont parcourus de la base au sommet par 3 sillons plus ou moins saillants, alternant avec les trois pores ronds ou ovales, situés à des hauteurs différentes, depuis la base jusqu'au milieu. Ces trois opercules contiennent trois germes. La maturation de l'infrutescence du cocotier dure de février à mai dans l'hémisphère sud. Cette infrutescence arrive également à maturation dans le sud de la France. La noix est appelée au Chili coquito.
+Le coquito est une graine oléagineuse. L'analyse de l'huile de coquito montre qu'elle est composée à 67,3 % de matières grasses (essentiellement des acides gras saturés comme l'acide caprique, l'acide caprylique, l'acide laurique et l'acide myristique et des triglycérides à chaîne moyenne), entre 7 et 11 % de protéines, glucides et fibre.
 </t>
         </is>
       </c>
@@ -605,30 +608,422 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques botaniques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La multiplication se fait exclusivement par semis. La germination de la graine du cocotier du Chili est longue (deux mois à un an) et problématique. Le taux de germination est supérieur à 50 %. Pour obtenir des résultats satisfaisants, « il faut semer des graines très fraîches, les faire hiverner (5 °C à 10 °C) quelques semaines en terre humide, puis les placer dans des conditions chaudes (27 °C) et humides. La croissance des plantules est délicate, car ces dernières sont sensibles à une maladie (sorte de fonte) dont les origines sont inconnues ». Il faut toutefois trois à huit mois pour obtenir la première feuille, simple et assez longue. La croissance est ensuite très lente les premières années, comme pour tous les palmiers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques botaniques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hybrides et cultivars</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'aucun hybride naturel de Jubaea chilensis ne soit signalé, l'espèce est connue pour ses diverses hybridations en culture ainsi qu'en témoignent quelques cultivars.
+L'hybridation s'obtient en retirant les anthères des fleurs du parent femelle puis en déposant sur leur pistil du pollen mûr prélevé sur le parent mâle (). Dans l'appellation du palmier hybride, le nom du parent femelle () est toujours indiqué en priorité ; ainsi Jubaea × Butia est un hybride dont le jubaea est le parent femelle, produisant les graines et le butia est le parent duquel provient le pollen.
+Jubaea chilensis × Butia capitata (nommé ×Jubutia) est un excellent palmier au stipe massif, faisant presque la taille d'un Jubaea mais dont la croissance est plus rapide. Les feuilles sont plus bleues que celles du Jubaea et plus distinctement ancrées que celles d'un Butia. Il est très résistant au froid et c'est un supplément intéressant à la gamme limitée de palmiers disponibles pour les jardins tempérés.
+Il existe deux autres hybrides de Jubaea plus rares. Le premier est le croisement d'un Jubaea chilensis (parent femelle ) avec un Syagrus romanzzofiana (parent mâle ) ; cet hybride difficile à obtenir est nommé ×Jubeagrus (syn. Jubaea chilensis × Syagrus romanzzofiana) et il est doté d'une bonne rusticité. Le second est le résultat d'un croisement entre un ×Jubutia (parent femelle ) avec un Syagrus romanzzofiana (parent mâle ) ; cet hybride, également difficile à obtenir, est nommé ×Jubutyagrus (syn. (Jubaea chilensis × Butia capitata) × Syagrus romanzzofiana) et il est aussi doté d'une bonne rusticité.
+Cette espèce peut enfin s'hybrider avec Butia odorata (Barb.Rodr.) Noblick. L'espèce hybride obtenue est nommée ×Jubautia splendens Hodel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Première description scientifique, Molina, 1782</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son Essai sur l'histoire naturelle du Chili, Le père Jésuite Juan Ignacio Molina donne une description scientifique inédite du palmier chilien. Cet ouvrage est la première étude scientifique sur l'histoire naturelle du Chili que le botaniste publie en italien depuis l'Europe puisque les Jésuites ont été expulsés du pays en 1768. Le nom binominal Palma chilensis utilisé pour définir le palmier y est associée au terme latin Cocos inermis et à la dénomination d'origine indienne Lilla. L'examen de la plante incite le savant à le comparer au palmier dattier et à observer que « les fleurs sont monoïques et sont renfermées dans une spathe ligneuse qui se fend à mesure que la fleur s'accroît » ; Molina ne relève curieusement que deux opercules sur les noix du jubaea alors qu'ils sont au nombre de trois et note que la « liqueur laiteuse du noyau lorsque celui-ci est jeune, est très rafraîchissante ». Chaque grappe de fruits « comporte plus mille coques recouvertes de deux écorces, comme les cocos des tropiques ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Définition du genre, Kunth, 1816</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Jubaea est décrit par Karl Sigismund Kunth en 1816 à la suite des publications d'Alexandre de Humboldt. Alexandre de Humboldt et Aimé Bonpland ont en effet rapporté durant leur voyage en Amérique du Sud un herbier riche de plus de 70 000 spécimens dont 54 000 nouvelles espèces. Humboldt après avoir contacté plusieurs botanistes, finit par rencontrer Kunth, neveu de son ancien précepteur, et lui confie la tâche énorme de déterminer sa collection. Kunth y consacre 24 ans de sa vie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Attribution de l'épithète spécifique, Baillon, 1895</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jubaea spectabilis tel que défini en 1816 par le botaniste allemand a des synonymes comme Cocos chilensis (Molina) Kunth, Micrococos chilensis Philippi ou Palma chilensis Molina. Le nom binominal de Jubaea chilensis, actuellement en vigueur, est employé par le botaniste français Henri Ernest Baillon à partir de 1895 dans son ouvrage de taxonomie, Histoire des plantes.Les noms vernaculaires de ce palmier, Palma chilena ou coquito ainsi que les dénominations locales essentiellement d'origine Mapuche Lilla, Lillal ou Quechua Can can, Kan kan sont mentionnées par le botaniste italien Carlo Luigi Giuseppe Bertero, et reprises par Henri Ernest Baillon dans son traité général de botanique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Classification traditionnelle des plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la classification de Cronquist, le cocotier du Chili est rattaché, de par ses caractères morphologiques spécifiques, à la famille des Arecaceae, puis, toujours selon la taxinomie linnéenne, à la sous-famille des Arecoideae, à la tribu des Cocoeae et enfin à la sous-tribu des Attaleinae.
+Le genre Jubaea partage sa sous-tribu Attaleinae avec 9 autres genre; 
+Beccariophoenix, Jubaeopsis, Voanioala, Allagoptera, Butia, Cocos, Syagrus, Parajubaea et Attalea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Distribution et habitat : le Chili
-Jubaea chilensis occupe la zone centrale du Chili, comprise entre l'hacienda Las Palmas (Région IV) au Nord (31° 15′ S, 71° 35′ O) et la localité de Tapihué (Région VII) au Sud (35° 22′ S, 71° 47′ O). Ce qui fait de cette espèce le deuxième palmier, après Rhopalostylis sapida, dont l'aire de répartition naturelle est la plus australe[24]. Il est inféodé aux régions chiliennes bénéficiant d'un climat méditerranéen[13], chaud et sec en été (de septembre à avril) et froid et humide en hiver (de mai à août)[25],[26]. Les sols sont en général pauvres et pierreux. L'aire de distribution naturelle des Jubaea occupe la chaine côtière parallèle aux Andes (cordillère de la Costa) et ses vallées centrales, jusqu’à 1 500 mètres d’altitude, sur la côte de l’océan Pacifique (région du Maule, région du Libertador General Bernardo O'Higgins, région de Valparaíso, région de Coquimbo).
-On estime qu'en 1550 la population totale de palmiers du Chili s'élève à 5 millions d'individus[27].
-Ses populations sont maintenant réduites à des zones protégées comme le parc national La Campana (région V)[28], déclaré Réserve de biosphère en 1984 ou le parc national Las Palmas de Cocalán (région VI), deux de ses derniers sanctuaires naturels. On y recense le plus ancien cocotier du Chili, La Capitana, âgé de 1 600 ans environ selon la tradition locale et haut de 28 mètres.
-Le nombre estimé de cocotiers au Chili est de 120 000 pieds mais trois localités seulement rassemblent un nombre important de palmiers : Ocoa (60 000 individus), Cocalán (35 000 individus) et Las Siete Hermanas à Viña del Mar-Valparaíso (7 000 individus) qui représentent 90 % du total des effectifs[29]. Le reliquat se situe dans les quelques régions suivantes, avec des effectifs moindres : Cuesta-Los Guindos (2 500), San Miguel de Las Palmas (2 000), La Candelaria (1 900), Tunel de Las Palmas (1 300), Tilama-Pichidangui (50), Tapihue-Pencahue (17), La Serena (3), Limahuida-Los Vilos (2), autres sujets dispersés (200)[30].
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Distribution et habitat : le Chili</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jubaea chilensis occupe la zone centrale du Chili, comprise entre l'hacienda Las Palmas (Région IV) au Nord (31° 15′ S, 71° 35′ O) et la localité de Tapihué (Région VII) au Sud (35° 22′ S, 71° 47′ O). Ce qui fait de cette espèce le deuxième palmier, après Rhopalostylis sapida, dont l'aire de répartition naturelle est la plus australe. Il est inféodé aux régions chiliennes bénéficiant d'un climat méditerranéen, chaud et sec en été (de septembre à avril) et froid et humide en hiver (de mai à août),. Les sols sont en général pauvres et pierreux. L'aire de distribution naturelle des Jubaea occupe la chaine côtière parallèle aux Andes (cordillère de la Costa) et ses vallées centrales, jusqu’à 1 500 mètres d’altitude, sur la côte de l’océan Pacifique (région du Maule, région du Libertador General Bernardo O'Higgins, région de Valparaíso, région de Coquimbo).
+On estime qu'en 1550 la population totale de palmiers du Chili s'élève à 5 millions d'individus.
+Ses populations sont maintenant réduites à des zones protégées comme le parc national La Campana (région V), déclaré Réserve de biosphère en 1984 ou le parc national Las Palmas de Cocalán (région VI), deux de ses derniers sanctuaires naturels. On y recense le plus ancien cocotier du Chili, La Capitana, âgé de 1 600 ans environ selon la tradition locale et haut de 28 mètres.
+Le nombre estimé de cocotiers au Chili est de 120 000 pieds mais trois localités seulement rassemblent un nombre important de palmiers : Ocoa (60 000 individus), Cocalán (35 000 individus) et Las Siete Hermanas à Viña del Mar-Valparaíso (7 000 individus) qui représentent 90 % du total des effectifs. Le reliquat se situe dans les quelques régions suivantes, avec des effectifs moindres : Cuesta-Los Guindos (2 500), San Miguel de Las Palmas (2 000), La Candelaria (1 900), Tunel de Las Palmas (1 300), Tilama-Pichidangui (50), Tapihue-Pencahue (17), La Serena (3), Limahuida-Los Vilos (2), autres sujets dispersés (200).
 En grandes palmeraies, le cocotier du Chili est associé à une flore diverse : Quillaja, Peumus boldus, Crataegus oxyacantha, Cryptocarya rubra, alors qu'en bosquets isolés, il est associé à Drimys winteri et à Crinodendron patagua. Dans les milieux arides il côtoie également Colliguaja odorifera, Lithraea caustica, Podanthus mitiqui, Quillaja saponaria, Schinus polygamus ; dans les zones plus humides, il prospère aux côtés de Persea cf. meyeniana, Aristotelia chilensis, Luma apiculata et Rhaphithamnus spinosus.
-Statut de protection du cocotier du Chili
-Liste rouge de l'UICN
-Le but essentiel de la liste rouge de l'UICN[31], dans laquelle est inclus le palmier du Chili, est de rassembler les informations sur les espèces menacées d'extinction, d'évaluer régulièrement l'évolution des risques que courent ces espèces, puis d'assurer une diffusion aussi large que possible de ces données auprès de nombreux publics. Elle peut en effet être utilisée par les agences gouvernementales, les organismes responsables de la protection de la nature, les ONG spécialisées dans la conservation, les éducateurs, et d'une façon générale par toute personne soucieuse du déclin de la biodiversité. L'UICN se donne comme objectif de réévaluer chaque espèce tous les 5 ans si possible, tous les 10 ans tout au plus. Ce travail est réalisé par des comités de lecture, dès lors que l'UICN a collecté l'ensemble des données nécessaires à la réévaluation de l'espèce. Ces contraintes de calendrier expliquent que le statut de protection de Jubaea chilensis a évolué dans le temps.
-Évolution de ce statut
-Jubaea chilensis est décrit comme une espèce vulnérable selon le Livre Rouge de la flore terrestre du Chili publié par la CONAF[32]. Il est également qualifié d'espèce vulnérable par l'UICN en 1997[33] et inscrit sur la liste rouge de l'UICN selon les critères de 1994. Le cocotier du Chili est alors classé en catégorie VU A 4c (B1ab-III) de l'UICN[33]. Il est déclaré espèce en danger pour la quatrième région chilienne (la région de Coquimbo, La Serena) notamment dans la province de Choapa[34]. Depuis 2007, son statut de protection sur la liste rouge de l'UICN est inclus dans la catégorie VU A1cd[31] et la coupe de ses populations au Chili est contrôlée par la CONAF et le SAG, organismes publics qui autorisent environ une ponction de 36 sujets par an avec une obligation de replanter 10 nouveaux palmiers pour chaque palmier abattu[33]. Jubaea chilensis est aussi bénéficiaire d'un statut protecteur dans la cinquième région administrative chilienne, lieu d'implantation du parc national La Campana, créé en 1967, dans le secteur d'Ocoa[35] où plusieurs facteurs mettent en péril les palmeraies primaires : les récoltes illégales de noix qui ont un impact négatif sur la régénérescence des palmiers et les incendies, nombreux dans les vallées centrales de la cordillère de la Costa, qui détruisent les jeunes pousses.
- Le parc national Las Palmas de Cocalàn a, lui, été créé en 1972[36]. Diverses institutions, autres que les organismes gouvernementaux de régulation, sont chargées de la protection des sites comme « La Fundación para la Recuperación y Fomento de la Palma Chilena[trad 1] » qui gère 1 000 hectares de terres dans la réserve écologique privée de l'Oasis de La Campana.
-Commerce réglementé des spécimens juvéniles et adultes
-Des initiatives ont été mises en place à partir des années 1970[37] pour commercialiser ce palmier, qu'il soit juvénile ou même adulte afin de limiter la chute des populations existantes souvent sénescentes dans les forêts chiliennes[38]. Jubaea chilensis, grâce à ses qualités esthétiques et à sa rusticité, est un palmier très demandé par les amateurs de plantes exotiques et donc recherché par les producteurs et pépiniéristes, notamment européens[37].
-Cultivé depuis le XIXe siècle dans les jardins botaniques où il tient souvent une place de choix, il est cependant très rare en culture et de faible disponibilité dans le commerce. Il est donc devenu un objet de convoitise de la part des amateurs d'exotisme. Ce palmier étant de croissance lente, le seul moyen de disposer de palmiers de taille adulte est le recours à l'exportation directe depuis le Chili. Plusieurs sociétés spécialisées proposent des Jubaea chilensis de toutes tailles, cultivés, conditionnés (afin d'éviter l'importation de parasites[39]), acclimatés (en tenant compte de l'inversion des saisons avec l'hémisphère sud) et exportés en conteneurs de manière à garantir une reprise en Europe.
-Facteurs de raréfaction
-La disparition au Chili, dès le XIXe siècle d'une partie des couvertures végétales sclérophylles (le matorral chilien), végétation endémique dans la partie centrale du pays, est un autre facteur de raréfaction du cocotier du Chili, palmier qui a besoin de ces forêts de type méditerranéen pour assurer la survie des jeunes pousses[37]. Cette flore est détruite par l'activité agricole humaine (culture du blé) au moment de la restructuration des sols chiliens provoquée par découverte de l'or en Californie et en Australie entre 1848 et 1852.
-Accessoirement, Octodon degus[40], un rongeur endémique qui se nourrit des jeunes pousses du palmier ainsi que de ses fruits, est responsable de la diminution des effectifs de Jubaea chilensis, dans son aire de distribution originelle, dans le centre du Chili[41]. Les populations de rongeurs naturalisés Rattus rattus et Rattus norvegicus sont également une cause de raréfaction des jeunes pousses[42]. En revanche, les sujets de cocotiers du Chili, au faux-tronc massif[43], présentent une résistance notable aux incendies qui sont fréquents dans son aire de distribution naturelle.
-Possibles ravageurs en culture</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Statut de protection du cocotier du Chili</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Liste rouge de l'UICN</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le but essentiel de la liste rouge de l'UICN, dans laquelle est inclus le palmier du Chili, est de rassembler les informations sur les espèces menacées d'extinction, d'évaluer régulièrement l'évolution des risques que courent ces espèces, puis d'assurer une diffusion aussi large que possible de ces données auprès de nombreux publics. Elle peut en effet être utilisée par les agences gouvernementales, les organismes responsables de la protection de la nature, les ONG spécialisées dans la conservation, les éducateurs, et d'une façon générale par toute personne soucieuse du déclin de la biodiversité. L'UICN se donne comme objectif de réévaluer chaque espèce tous les 5 ans si possible, tous les 10 ans tout au plus. Ce travail est réalisé par des comités de lecture, dès lors que l'UICN a collecté l'ensemble des données nécessaires à la réévaluation de l'espèce. Ces contraintes de calendrier expliquent que le statut de protection de Jubaea chilensis a évolué dans le temps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Statut de protection du cocotier du Chili</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Évolution de ce statut</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jubaea chilensis est décrit comme une espèce vulnérable selon le Livre Rouge de la flore terrestre du Chili publié par la CONAF. Il est également qualifié d'espèce vulnérable par l'UICN en 1997 et inscrit sur la liste rouge de l'UICN selon les critères de 1994. Le cocotier du Chili est alors classé en catégorie VU A 4c (B1ab-III) de l'UICN. Il est déclaré espèce en danger pour la quatrième région chilienne (la région de Coquimbo, La Serena) notamment dans la province de Choapa. Depuis 2007, son statut de protection sur la liste rouge de l'UICN est inclus dans la catégorie VU A1cd et la coupe de ses populations au Chili est contrôlée par la CONAF et le SAG, organismes publics qui autorisent environ une ponction de 36 sujets par an avec une obligation de replanter 10 nouveaux palmiers pour chaque palmier abattu. Jubaea chilensis est aussi bénéficiaire d'un statut protecteur dans la cinquième région administrative chilienne, lieu d'implantation du parc national La Campana, créé en 1967, dans le secteur d'Ocoa où plusieurs facteurs mettent en péril les palmeraies primaires : les récoltes illégales de noix qui ont un impact négatif sur la régénérescence des palmiers et les incendies, nombreux dans les vallées centrales de la cordillère de la Costa, qui détruisent les jeunes pousses.
+ Le parc national Las Palmas de Cocalàn a, lui, été créé en 1972. Diverses institutions, autres que les organismes gouvernementaux de régulation, sont chargées de la protection des sites comme « La Fundación para la Recuperación y Fomento de la Palma Chilena[trad 1] » qui gère 1 000 hectares de terres dans la réserve écologique privée de l'Oasis de La Campana.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Statut de protection du cocotier du Chili</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Commerce réglementé des spécimens juvéniles et adultes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des initiatives ont été mises en place à partir des années 1970 pour commercialiser ce palmier, qu'il soit juvénile ou même adulte afin de limiter la chute des populations existantes souvent sénescentes dans les forêts chiliennes. Jubaea chilensis, grâce à ses qualités esthétiques et à sa rusticité, est un palmier très demandé par les amateurs de plantes exotiques et donc recherché par les producteurs et pépiniéristes, notamment européens.
+Cultivé depuis le XIXe siècle dans les jardins botaniques où il tient souvent une place de choix, il est cependant très rare en culture et de faible disponibilité dans le commerce. Il est donc devenu un objet de convoitise de la part des amateurs d'exotisme. Ce palmier étant de croissance lente, le seul moyen de disposer de palmiers de taille adulte est le recours à l'exportation directe depuis le Chili. Plusieurs sociétés spécialisées proposent des Jubaea chilensis de toutes tailles, cultivés, conditionnés (afin d'éviter l'importation de parasites), acclimatés (en tenant compte de l'inversion des saisons avec l'hémisphère sud) et exportés en conteneurs de manière à garantir une reprise en Europe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cocotier_du_Chili</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Facteurs de raréfaction</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La disparition au Chili, dès le XIXe siècle d'une partie des couvertures végétales sclérophylles (le matorral chilien), végétation endémique dans la partie centrale du pays, est un autre facteur de raréfaction du cocotier du Chili, palmier qui a besoin de ces forêts de type méditerranéen pour assurer la survie des jeunes pousses. Cette flore est détruite par l'activité agricole humaine (culture du blé) au moment de la restructuration des sols chiliens provoquée par découverte de l'or en Californie et en Australie entre 1848 et 1852.
+Accessoirement, Octodon degus, un rongeur endémique qui se nourrit des jeunes pousses du palmier ainsi que de ses fruits, est responsable de la diminution des effectifs de Jubaea chilensis, dans son aire de distribution originelle, dans le centre du Chili. Les populations de rongeurs naturalisés Rattus rattus et Rattus norvegicus sont également une cause de raréfaction des jeunes pousses. En revanche, les sujets de cocotiers du Chili, au faux-tronc massif, présentent une résistance notable aux incendies qui sont fréquents dans son aire de distribution naturelle.
+</t>
         </is>
       </c>
     </row>
